--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.16594</v>
+        <v>17.35801833333333</v>
       </c>
       <c r="H2">
-        <v>63.49782</v>
+        <v>52.074055</v>
       </c>
       <c r="I2">
-        <v>0.1484747310246988</v>
+        <v>0.1236596992587132</v>
       </c>
       <c r="J2">
-        <v>0.1568390841279916</v>
+        <v>0.1296408129979553</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,33 +558,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N2">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>192.8774292093934</v>
+        <v>191.4363420767967</v>
       </c>
       <c r="R2">
-        <v>1735.89686288454</v>
+        <v>1722.92707869117</v>
       </c>
       <c r="S2">
-        <v>0.1482035962456545</v>
+        <v>0.1236596992587132</v>
       </c>
       <c r="T2">
-        <v>0.1565526749179727</v>
+        <v>0.1296408129979553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.16594</v>
+        <v>44.240478</v>
       </c>
       <c r="H3">
-        <v>63.49782</v>
+        <v>132.721434</v>
       </c>
       <c r="I3">
-        <v>0.1484747310246988</v>
+        <v>0.3151721642116242</v>
       </c>
       <c r="J3">
-        <v>0.1568390841279916</v>
+        <v>0.3304162621100751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N3">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3528644410533334</v>
+        <v>487.914871237644</v>
       </c>
       <c r="R3">
-        <v>3.17577996948</v>
+        <v>4391.233841138796</v>
       </c>
       <c r="S3">
-        <v>0.0002711347790442757</v>
+        <v>0.3151721642116242</v>
       </c>
       <c r="T3">
-        <v>0.0002864092100188792</v>
+        <v>0.3304162621100751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.240478</v>
+        <v>29.16574266666667</v>
       </c>
       <c r="H4">
-        <v>132.721434</v>
+        <v>87.49722800000001</v>
       </c>
       <c r="I4">
-        <v>0.3103378858417866</v>
+        <v>0.2077787278223495</v>
       </c>
       <c r="J4">
-        <v>0.3278208315295499</v>
+        <v>0.2178284708764751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N4">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>403.147210264922</v>
+        <v>321.6601678163814</v>
       </c>
       <c r="R4">
-        <v>3628.324892384298</v>
+        <v>2894.941510347433</v>
       </c>
       <c r="S4">
-        <v>0.309771167225588</v>
+        <v>0.2077787278223495</v>
       </c>
       <c r="T4">
-        <v>0.3272221867089165</v>
+        <v>0.2178284708764751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.240478</v>
+        <v>19.428243</v>
       </c>
       <c r="H5">
-        <v>132.721434</v>
+        <v>38.856486</v>
       </c>
       <c r="I5">
-        <v>0.3103378858417866</v>
+        <v>0.13840812011885</v>
       </c>
       <c r="J5">
-        <v>0.3278208315295499</v>
+        <v>0.09673505232660813</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N5">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.7375477555639999</v>
+        <v>214.268224717614</v>
       </c>
       <c r="R5">
-        <v>6.637929800075999</v>
+        <v>1285.609348305684</v>
       </c>
       <c r="S5">
-        <v>0.0005667186161986255</v>
+        <v>0.13840812011885</v>
       </c>
       <c r="T5">
-        <v>0.0005986448206334139</v>
+        <v>0.09673505232660813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.368218</v>
+        <v>30.17676066666667</v>
       </c>
       <c r="H6">
-        <v>70.104654</v>
+        <v>90.530282</v>
       </c>
       <c r="I6">
-        <v>0.1639232598257637</v>
+        <v>0.214981288588463</v>
       </c>
       <c r="J6">
-        <v>0.1731579088300944</v>
+        <v>0.2253794016888863</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N6">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>212.945978919182</v>
+        <v>332.8103800109453</v>
       </c>
       <c r="R6">
-        <v>1916.513810272638</v>
+        <v>2995.293420098508</v>
       </c>
       <c r="S6">
-        <v>0.1636239139604684</v>
+        <v>0.214981288588463</v>
       </c>
       <c r="T6">
-        <v>0.1728416992567454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>23.368218</v>
-      </c>
-      <c r="H7">
-        <v>70.104654</v>
-      </c>
-      <c r="I7">
-        <v>0.1639232598257637</v>
-      </c>
-      <c r="J7">
-        <v>0.1731579088300944</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.050014</v>
-      </c>
-      <c r="O7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q7">
-        <v>0.389579351684</v>
-      </c>
-      <c r="R7">
-        <v>3.506214165155999</v>
-      </c>
-      <c r="S7">
-        <v>0.0002993458652953029</v>
-      </c>
-      <c r="T7">
-        <v>0.0003162095733489253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>22.807849</v>
-      </c>
-      <c r="H8">
-        <v>45.615698</v>
-      </c>
-      <c r="I8">
-        <v>0.1599923861414587</v>
-      </c>
-      <c r="J8">
-        <v>0.1126703924036929</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N8">
-        <v>27.337897</v>
-      </c>
-      <c r="O8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q8">
-        <v>207.8395422511844</v>
-      </c>
-      <c r="R8">
-        <v>1247.037253507106</v>
-      </c>
-      <c r="S8">
-        <v>0.1597002185788987</v>
-      </c>
-      <c r="T8">
-        <v>0.1124646411506792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>22.807849</v>
-      </c>
-      <c r="H9">
-        <v>45.615698</v>
-      </c>
-      <c r="I9">
-        <v>0.1599923861414587</v>
-      </c>
-      <c r="J9">
-        <v>0.1126703924036929</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.050014</v>
-      </c>
-      <c r="O9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q9">
-        <v>0.3802372532953334</v>
-      </c>
-      <c r="R9">
-        <v>2.281423519772</v>
-      </c>
-      <c r="S9">
-        <v>0.0002921675625599526</v>
-      </c>
-      <c r="T9">
-        <v>0.0002057512530137218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>30.973355</v>
-      </c>
-      <c r="H10">
-        <v>92.92006500000001</v>
-      </c>
-      <c r="I10">
-        <v>0.2172717371662922</v>
-      </c>
-      <c r="J10">
-        <v>0.2295117831086713</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N10">
-        <v>27.337897</v>
-      </c>
-      <c r="O10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q10">
-        <v>282.2487962448117</v>
-      </c>
-      <c r="R10">
-        <v>2540.239166203306</v>
-      </c>
-      <c r="S10">
-        <v>0.2168749698238455</v>
-      </c>
-      <c r="T10">
-        <v>0.2290926638001414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>30.973355</v>
-      </c>
-      <c r="H11">
-        <v>92.92006500000001</v>
-      </c>
-      <c r="I11">
-        <v>0.2172717371662922</v>
-      </c>
-      <c r="J11">
-        <v>0.2295117831086713</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.050014</v>
-      </c>
-      <c r="O11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q11">
-        <v>0.5163671256566666</v>
-      </c>
-      <c r="R11">
-        <v>4.64730413091</v>
-      </c>
-      <c r="S11">
-        <v>0.0003967673424466341</v>
-      </c>
-      <c r="T11">
-        <v>0.0004191193085298503</v>
+        <v>0.2253794016888863</v>
       </c>
     </row>
   </sheetData>
